--- a/Andi/1.3.3.6_webshop_ megrendelés_új_cím_rövid_tesztjegyzőkönyv.xlsx
+++ b/Andi/1.3.3.6_webshop_ megrendelés_új_cím_rövid_tesztjegyzőkönyv.xlsx
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1250,7 +1250,9 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1264,9 @@
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
@@ -1275,7 +1279,7 @@
     </row>
     <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>31</v>
@@ -1289,7 +1293,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1299,7 +1303,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1309,7 +1313,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1319,7 +1323,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1329,7 +1333,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1339,7 +1343,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -1349,7 +1353,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
